--- a/hackwashu2022/hashtags.xlsx
+++ b/hackwashu2022/hashtags.xlsx
@@ -19,19 +19,19 @@
     <t>Hashtags</t>
   </si>
   <si>
-    <t>['#eatortrip_finedining', '#eatortrip_扒房-📍37', '#扒房', '#山頂餐廳', '#牛扒', '#牛魔王', '#finedining', '#37steakhouse', '#steakEdited']</t>
-  </si>
-  <si>
-    <t>['#eatingnewyork10h']</t>
-  </si>
-  <si>
-    <t>['#fotografiagastronomica', '#fotografiadealimentos', '#foodphotography', '#fotografiapublicitaria', '#fotografiaparaembalagens', '#fotografiastill', '#stillphotography', '#fotografiadeprodutos', '#estudiofotografico', '#food6hSee']</t>
-  </si>
-  <si>
-    <t>['#bts', '#방탄소년단', '#박지민', '#지민', '#방탄소년단', '#Jimin', '#Parkjimin', '#bts', '#kimtaehyung', '#btsarmy', '#v', '#jungkook', '#jiminff', '#btsworld', '#jiminfilter', '#jiminsexy', '#jikook', '#food', '#cute', '#smile', '#lovely', '#post', '#jiminpark', '#jimincute', '#explore', '#namjoon', '#yoongi', '#seokjin', '#hoseok', '#jhope', '#bangtanboys', '#bangtansonyeondanEdited']</t>
-  </si>
-  <si>
-    <t>['#carbonara', '#pasta', '#foodporn', '#food', '#italianfood', '#spaghetti', '#instafood', '#foodie', '#amatriciana', '#cacioepepe', '#roma', '#foodphotography11hSee']</t>
+    <t>['#chickenandwaffles', '#foodie', '#brunch', '#foodporn', '#waffles', '#friedchicken', '#food', '#chicken', '#shrimpandgrits', '#breakfast', '#soulfood', '#foodtruck', '#chickenwings', '#sundaybrunch', '#goodeats', '#macandcheese', '#seafood', '#foodphotography', '#instafood', '#houstonfoodies', '#foodstagram', '#bar', '#margarita', '#newyorkfoodie', '#houstonbrunch', '#catering', '#houstonbreakfast', '#houstonseafood', '#houstonburgers', '#thewafflebus59m']</t>
+  </si>
+  <si>
+    <t>['#어촌밥상', '#기장어촌밥상', '#생선구이정식', '#연화리어촌밥상', '#생선사랑', '#기장맛집', '#생선구이맛집', '#먹스타', '#연화리맛집', '#일광투썸', '#야외카페투썸', '#라떼', '#투썸', '#생선구이전문점', '#요리스타그램', '#맛스타그램', '#먹방', '#취향저격', '#냠냠', '#instafood', '#냠냠쩝쩝', '#foodstagram', '#food', '#맛있다', '#오늘뭐먹지', '#간식스타그램', '#쿡스타그램', '#푸드스타그램Edited']</t>
+  </si>
+  <si>
+    <t>['#cuisinedereine', '#pasta', '#spaghetti', '#pastalover', '#ma9rouna', '#pastatime', '#مقرونة_تونسية', '#مقرونة', '#معكرونة', '#المطبخ_التونسي', '#المطبخ_الجزائري', '#المطبخ_العربي', '#المطبخ_العربي', '#تونس', '#بنة', '#بنة_تونسية', '#اكلات', '#غذا', '#الجزائر', '#benna', '#cuisinetunisienne', '#tunisiankitchen', '#tunisianfood', '#tunisia', '#algeria', '#food', '#foodphotography', '#foodblogger', '#foodstagram', '#delicious']</t>
+  </si>
+  <si>
+    <t>['#restaurants', '#restaurantsbarcelona', '#restaurantscatalunya', '#gastronómia', '#food', '#barcelona', '#poblesec', '#restaurantspoblesec1hSee']</t>
+  </si>
+  <si>
+    <t>['#italy', '#italia', '#love', '#travel', '#instagood', '#photography', '#picoftheday', '#ig', '#photooftheday', '#nature', '#instagram', '#summer', '#like', '#roma', '#art', '#milano', '#photo', '#food', '#rome', '#travelphotography', '#landscape', '#follow', '#fashion', '#igersitalia', '#madeinitaly', '#bhfyp', '#europe', '#beautiful', '#sea', '#instalike2h']</t>
   </si>
 </sst>
 </file>
